--- a/app/data/Input.xlsx
+++ b/app/data/Input.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,7 +405,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ARVN</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ASYS</t>
+          <t>ALXN</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BKSC</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CORR</t>
+          <t>APAM</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DX</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIGI</t>
+          <t>BDX</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INFU</t>
+          <t>BLDR</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NEP</t>
+          <t>BPMP</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OXSQ</t>
+          <t>BRKR</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>OXY</t>
+          <t>BX</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PRVB</t>
+          <t>CCOI</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>REPL</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VALU</t>
+          <t>CMTL</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>WPC</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
@@ -625,12 +625,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AMSC</t>
+          <t>CSOD</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ANIK</t>
+          <t>CTAS</t>
         </is>
       </c>
     </row>
@@ -655,12 +655,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>APRN</t>
+          <t>CTXS</t>
         </is>
       </c>
     </row>
@@ -670,12 +670,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CMD</t>
+          <t>DOC</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EBIX</t>
+          <t>EHC</t>
         </is>
       </c>
     </row>
@@ -700,12 +700,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EHTH</t>
+          <t>ENTG</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ENTA</t>
+          <t>EPRT</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GATX</t>
+          <t>EQH</t>
         </is>
       </c>
     </row>
@@ -745,12 +745,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HBI</t>
+          <t>ESE</t>
         </is>
       </c>
     </row>
@@ -760,12 +760,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MPAA</t>
+          <t>EXLS</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NYT</t>
+          <t>FBHS</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>OLLI</t>
+          <t>FPAC</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PTLA</t>
+          <t>FR</t>
         </is>
       </c>
     </row>
@@ -820,12 +820,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TISI</t>
+          <t>GDDY</t>
         </is>
       </c>
     </row>
@@ -835,12 +835,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TRUP</t>
+          <t>GGG</t>
         </is>
       </c>
     </row>
@@ -850,12 +850,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>GLW</t>
         </is>
       </c>
     </row>
@@ -865,12 +865,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>WDFC</t>
+          <t>GNTX</t>
         </is>
       </c>
     </row>
@@ -880,12 +880,1212 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GPN</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>HESM</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>HUBG</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ITI</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>KIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>LADR</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>LAMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>LEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>LNT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>LUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LXP</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>MAIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MINI</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>MPW</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>MTN</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NEP</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NOVT</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ORC</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ORGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ORN</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>OXSQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>PAYC</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>PEGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>PGRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>POWI</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>PRGS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>RGR</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>RJF</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RMBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>SKY</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>SNDR</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>STAG</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>TDY</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>TRI</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>TROW</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>TSN</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>VNO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>WCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>WMS</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>XRAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>XYL</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
           <t>SELL</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>WWE</t>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ABMD</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>APRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>AVRO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CRC</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CTB</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>CVGW</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ENTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>EOLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>FIXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>GVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>KURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MOV</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>TAST</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>TWNK</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>VCEL</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>WNC</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>XERS</t>
         </is>
       </c>
     </row>

--- a/app/data/Input.xlsx
+++ b/app/data/Input.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,7 +405,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>ADX</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ALXN</t>
+          <t>AEE</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>APAM</t>
+          <t>ALL</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>ANSS</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BDX</t>
+          <t>APD</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BLDR</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BPMP</t>
+          <t>ATVI</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BRKR</t>
+          <t>AVY</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>BERY</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>BHE</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CCOI</t>
+          <t>CCI</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>CCL</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CMTL</t>
+          <t>CCMP</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>CFG</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CSOD</t>
+          <t>CGNX</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>CLW</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CTXS</t>
+          <t>CSL</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>CUZ</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EHC</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ENTG</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EPRT</t>
+          <t>DOOR</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EQH</t>
+          <t>ENTG</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ESE</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EXLS</t>
+          <t>EXP</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FBHS</t>
+          <t>FE</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FPAC</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>FORM</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GDDY</t>
+          <t>FSS</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GGG</t>
+          <t>GLPI</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>GOOG</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GNTX</t>
+          <t>GOOGL</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>GPN</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>HLT</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>HOLX</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HESM</t>
+          <t>HOMB</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>HON</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HUBG</t>
+          <t>HR</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ITI</t>
+          <t>HUBB</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>IBKC</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>IIIN</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LADR</t>
+          <t>ITGR</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>JBGS</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>KO</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>LADR</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>LOGM</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LUNA</t>
+          <t>LRCX</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LXP</t>
+          <t>MAS</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MAIN</t>
+          <t>MC</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>MCK</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MIC</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MINI</t>
+          <t>MDT</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MGM</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MPW</t>
+          <t>MGP</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MTN</t>
+          <t>MPW</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>NEP</t>
+          <t>MWA</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NOVT</t>
+          <t>NDAQ</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>NDSN</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ODFL</t>
+          <t>NKE</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ORC</t>
+          <t>NOVT</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ORGO</t>
+          <t>NRZ</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ORN</t>
+          <t>NSC</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>OXSQ</t>
+          <t>O</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>OKE</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>ORC</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PGRE</t>
+          <t>PAYX</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>PCTY</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>POWI</t>
+          <t>PDM</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PRGS</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>PEP</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>PFG</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RGR</t>
+          <t>PG</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>PHR</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>PLD</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>PRGS</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SKY</t>
+          <t>QCOM</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SNDR</t>
+          <t>RCL</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SAR</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>STAG</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TDY</t>
+          <t>SMTC</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>SNV</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>STAG</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TSN</t>
+          <t>THG</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>TILE</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>XRAY</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>UDR</t>
         </is>
       </c>
     </row>
@@ -1810,12 +1810,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ABMD</t>
+          <t>UNP</t>
         </is>
       </c>
     </row>
@@ -1825,12 +1825,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>APRN</t>
+          <t>UTX</t>
         </is>
       </c>
     </row>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AVRO</t>
+          <t>VRTX</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
@@ -1870,12 +1870,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CTB</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
@@ -1885,12 +1885,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CVGW</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
@@ -1900,12 +1900,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ENTA</t>
+          <t>XYL</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>EOLS</t>
+          <t>ARCH</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>BCEI</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>FIXX</t>
+          <t>CEIX</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>CLR</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>KURA</t>
+          <t>ENTA</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MOV</t>
+          <t>KLXE</t>
         </is>
       </c>
     </row>
@@ -2010,82 +2010,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SIX</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>TAST</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>TWNK</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>VCEL</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>WNC</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>XERS</t>
+          <t>KURA</t>
         </is>
       </c>
     </row>
@@ -2153,7 +2078,7 @@
         <v>3000</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
         <v>0.7</v>
@@ -2169,7 +2094,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>STP LMT</t>
+          <t>TRAIL</t>
         </is>
       </c>
     </row>

--- a/app/data/Input.xlsx
+++ b/app/data/Input.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,7 +390,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ACM</t>
+          <t>ABC</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ADX</t>
+          <t>ABT</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AEE</t>
+          <t>ADX</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>AHH</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALL</t>
+          <t>AMAT</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANSS</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ATVI</t>
+          <t>ASPU</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AVY</t>
+          <t>ATKR</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BERY</t>
+          <t>BGCP</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>BMCH</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>CAH</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CCMP</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CFG</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CGNX</t>
+          <t>CIT</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CLW</t>
+          <t>COF</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CSL</t>
+          <t>CPRT</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUZ</t>
+          <t>CSWC</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>CTXS</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>DGX</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DOOR</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ENTG</t>
+          <t>DOOR</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>ELAN</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EXP</t>
+          <t>EVR</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>EXLS</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>EXP</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FSS</t>
+          <t>FE</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GLPI</t>
+          <t>FISV</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HLT</t>
+          <t>GRBK</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HOLX</t>
+          <t>HE</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HOMB</t>
+          <t>HUBB</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>HON</t>
+          <t>IBP</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>ICAD</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HUBB</t>
+          <t>IIIV</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>IBKC</t>
+          <t>INTC</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>IIIN</t>
+          <t>ITGR</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ITGR</t>
+          <t>IVR</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JBGS</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>KBH</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LADR</t>
+          <t>KLAC</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>KO</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LOGM</t>
+          <t>LAMR</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MAS</t>
+          <t>LLY</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MC</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MCK</t>
+          <t>LOW</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>LQDA</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>LRCX</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MGP</t>
+          <t>MDT</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MPW</t>
+          <t>MRCC</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MWA</t>
+          <t>MU</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>NDAQ</t>
+          <t>MWA</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>MXL</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>NDSN</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NOVT</t>
+          <t>NOVA</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NRZ</t>
+          <t>NVDA</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NSC</t>
+          <t>NYMT</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>OESX</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>OKE</t>
+          <t>OPI</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ORC</t>
+          <t>PANW</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PCTY</t>
+          <t>PEG</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PDM</t>
+          <t>PEGA</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>PEP</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>PFPT</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PFG</t>
+          <t>PHR</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PMT</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>RJF</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>RMD</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PRGS</t>
+          <t>SIBN</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>SMTC</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>SSD</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>SAR</t>
+          <t>STWD</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>TCPC</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SMTC</t>
+          <t>TENB</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SNV</t>
+          <t>TMO</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>TRMB</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>TROW</t>
         </is>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>STAG</t>
+          <t>TRU</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>THG</t>
+          <t>TTEK</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TILE</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>UMH</t>
         </is>
       </c>
     </row>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>VRTX</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>WMS</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>XRAY</t>
         </is>
       </c>
     </row>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>YMAB</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>UTX</t>
+          <t>ZBH</t>
         </is>
       </c>
     </row>
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>AAWW</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>BCEI</t>
         </is>
       </c>
     </row>
@@ -1870,12 +1870,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>WMS</t>
+          <t>BLFS</t>
         </is>
       </c>
     </row>
@@ -1885,12 +1885,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>BPMC</t>
         </is>
       </c>
     </row>
@@ -1900,12 +1900,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>BTU</t>
         </is>
       </c>
     </row>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ARCH</t>
+          <t>CEIX</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>BCEI</t>
+          <t>CLR</t>
         </is>
       </c>
     </row>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CEIX</t>
+          <t>COG</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CLR</t>
+          <t>DFIN</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ENTA</t>
+          <t>DO</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>KLXE</t>
+          <t>ENTA</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,157 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>KURA</t>
+          <t>EOLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>EQT</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>FIXX</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>FSLR</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>GOGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>LBRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PDCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>SCHN</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>SFIX</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>SXC</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>WNC</t>
         </is>
       </c>
     </row>

--- a/app/data/Input.xlsx
+++ b/app/data/Input.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C120"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,7 +390,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>ADX</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ADX</t>
+          <t>APO</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AHH</t>
+          <t>BC</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>BDN</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>BHF</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>CDNS</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>CG</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ASPU</t>
+          <t>CLW</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ATKR</t>
+          <t>CTXS</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>BGCP</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BHE</t>
+          <t>DOOR</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BMCH</t>
+          <t>EGP</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CAH</t>
+          <t>ELAN</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>EWBC</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>EXC</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CIT</t>
+          <t>EXLS</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COF</t>
+          <t>FE</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>FR</t>
         </is>
       </c>
     </row>
@@ -675,7 +675,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CSWC</t>
+          <t>GRBK</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CTXS</t>
+          <t>HE</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DGX</t>
+          <t>HR</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>IBP</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DOOR</t>
+          <t>INTC</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ELAN</t>
+          <t>ITGR</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EVR</t>
+          <t>IVR</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>JBGS</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EXLS</t>
+          <t>JKHY</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>EXP</t>
+          <t>KBH</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>KO</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>LEN</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>LMT</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>LNT</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GPN</t>
+          <t>LQDA</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GRBK</t>
+          <t>MDU</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>MRCC</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>HUBB</t>
+          <t>MU</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>IBP</t>
+          <t>MYE</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ICAD</t>
+          <t>NDSN</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>IIIV</t>
+          <t>NOVA</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>NX</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ITGR</t>
+          <t>OPI</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>IVR</t>
+          <t>ORC</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>PDM</t>
         </is>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>KBH</t>
+          <t>PEG</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>KLAC</t>
+          <t>PEP</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>PGRE</t>
         </is>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LAMR</t>
+          <t>PHR</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>PLXS</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>PRIM</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>PTC</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LOW</t>
+          <t>RMBS</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LQDA</t>
+          <t>SLG</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>SRE</t>
         </is>
       </c>
     </row>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>SSD</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>MRCC</t>
+          <t>STWD</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>TWO</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MWA</t>
+          <t>UMH</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MXL</t>
+          <t>UNP</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>VNO</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NOVA</t>
+          <t>WDC</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>WRB</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NYMT</t>
+          <t>XAN</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>OESX</t>
+          <t>YMAB</t>
         </is>
       </c>
     </row>
@@ -1360,12 +1360,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>OPI</t>
+          <t>AAWW</t>
         </is>
       </c>
     </row>
@@ -1375,12 +1375,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>PANW</t>
+          <t>ALLO</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>BCEI</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>PEG</t>
+          <t>BPMC</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>PEGA</t>
+          <t>BTU</t>
         </is>
       </c>
     </row>
@@ -1435,12 +1435,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>CEIX</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>PFPT</t>
+          <t>COG</t>
         </is>
       </c>
     </row>
@@ -1465,12 +1465,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -1480,12 +1480,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PMT</t>
+          <t>DO</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>ENTA</t>
         </is>
       </c>
     </row>
@@ -1510,12 +1510,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>EQT</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SIBN</t>
+          <t>GTHX</t>
         </is>
       </c>
     </row>
@@ -1540,12 +1540,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SMTC</t>
+          <t>LBRT</t>
         </is>
       </c>
     </row>
@@ -1555,12 +1555,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>PEB</t>
         </is>
       </c>
     </row>
@@ -1570,12 +1570,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>PUMP</t>
         </is>
       </c>
     </row>
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>STWD</t>
+          <t>PVAC</t>
         </is>
       </c>
     </row>
@@ -1600,12 +1600,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TCPC</t>
+          <t>RLI</t>
         </is>
       </c>
     </row>
@@ -1615,12 +1615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>TENB</t>
+          <t>SCHN</t>
         </is>
       </c>
     </row>
@@ -1630,12 +1630,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>SGMO</t>
         </is>
       </c>
     </row>
@@ -1645,12 +1645,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>UNFI</t>
         </is>
       </c>
     </row>
@@ -1660,12 +1660,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>VIRT</t>
         </is>
       </c>
     </row>
@@ -1675,12 +1675,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>VYGR</t>
         </is>
       </c>
     </row>
@@ -1690,477 +1690,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TTEK</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>TWO</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>UMH</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>VRTX</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>WDAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>WMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>WRB</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>XRAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>YMAB</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>ZBH</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>AAWW</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>BCEI</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>BLFS</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>BPMC</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>BTU</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>CEIX</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>CLR</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>COG</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>DFIN</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>DO</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>ENTA</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>EOLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>EQT</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>FIXX</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>FSLR</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>GOGO</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>LBRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>PDCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>SCHN</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>SFIX</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>SXC</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>WNC</t>
+          <t>X</t>
         </is>
       </c>
     </row>

--- a/app/data/Input.xlsx
+++ b/app/data/Input.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,7 +390,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADX</t>
+          <t>AGR</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AMH</t>
+          <t>CME</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>DGX</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BC</t>
+          <t>DHI</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BDN</t>
+          <t>FCPT</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>BHF</t>
+          <t>GRBK</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CDNS</t>
+          <t>HIW</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>HR</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CLW</t>
+          <t>MCFT</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CTXS</t>
+          <t>NDSN</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>NEM</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DOOR</t>
+          <t>PACQ</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>EGP</t>
+          <t>SO</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ELAN</t>
+          <t>TRI</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>EWBC</t>
+          <t>TRTX</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>VIVO</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>EXLS</t>
+          <t>WCN</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>AAWW</t>
         </is>
       </c>
     </row>
@@ -655,12 +655,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ALLO</t>
         </is>
       </c>
     </row>
@@ -670,12 +670,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GRBK</t>
+          <t>AMAG</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HE</t>
+          <t>AMC</t>
         </is>
       </c>
     </row>
@@ -700,12 +700,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>AMG</t>
         </is>
       </c>
     </row>
@@ -715,12 +715,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>IBP</t>
+          <t>ATNX</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>BCEI</t>
         </is>
       </c>
     </row>
@@ -745,12 +745,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ITGR</t>
+          <t>BKD</t>
         </is>
       </c>
     </row>
@@ -760,12 +760,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>IVR</t>
+          <t>BLFS</t>
         </is>
       </c>
     </row>
@@ -775,12 +775,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>JBGS</t>
+          <t>BLUE</t>
         </is>
       </c>
     </row>
@@ -790,12 +790,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>JKHY</t>
+          <t>BNFT</t>
         </is>
       </c>
     </row>
@@ -805,12 +805,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>KBH</t>
+          <t>BPMC</t>
         </is>
       </c>
     </row>
@@ -820,12 +820,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>BTU</t>
         </is>
       </c>
     </row>
@@ -835,12 +835,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>LEN</t>
+          <t>CEIX</t>
         </is>
       </c>
     </row>
@@ -850,12 +850,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>LMT</t>
+          <t>CEQP</t>
         </is>
       </c>
     </row>
@@ -865,12 +865,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LNT</t>
+          <t>CHH</t>
         </is>
       </c>
     </row>
@@ -880,12 +880,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>LQDA</t>
+          <t>CLR</t>
         </is>
       </c>
     </row>
@@ -895,12 +895,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MDU</t>
+          <t>COG</t>
         </is>
       </c>
     </row>
@@ -910,12 +910,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MRCC</t>
+          <t>CPS</t>
         </is>
       </c>
     </row>
@@ -925,12 +925,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>CRC</t>
         </is>
       </c>
     </row>
@@ -940,12 +940,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MYE</t>
+          <t>DBD</t>
         </is>
       </c>
     </row>
@@ -955,12 +955,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>DBI</t>
         </is>
       </c>
     </row>
@@ -970,12 +970,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NOVA</t>
+          <t>DFIN</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NX</t>
+          <t>DRQ</t>
         </is>
       </c>
     </row>
@@ -1000,12 +1000,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>OPI</t>
+          <t>EAF</t>
         </is>
       </c>
     </row>
@@ -1015,12 +1015,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ORC</t>
+          <t>EDIT</t>
         </is>
       </c>
     </row>
@@ -1030,12 +1030,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PDM</t>
+          <t>ELY</t>
         </is>
       </c>
     </row>
@@ -1045,12 +1045,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PEG</t>
+          <t>ENBL</t>
         </is>
       </c>
     </row>
@@ -1060,12 +1060,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>ENTA</t>
         </is>
       </c>
     </row>
@@ -1075,12 +1075,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PGRE</t>
+          <t>EQT</t>
         </is>
       </c>
     </row>
@@ -1090,12 +1090,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PHR</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1105,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PLXS</t>
+          <t>FAST</t>
         </is>
       </c>
     </row>
@@ -1120,12 +1120,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PRIM</t>
+          <t>HEAR</t>
         </is>
       </c>
     </row>
@@ -1135,12 +1135,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>HT</t>
         </is>
       </c>
     </row>
@@ -1150,12 +1150,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>RMBS</t>
+          <t>INN</t>
         </is>
       </c>
     </row>
@@ -1165,12 +1165,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SLG</t>
+          <t>IONS</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>LBRT</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>LOPE</t>
         </is>
       </c>
     </row>
@@ -1210,12 +1210,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>MIK</t>
         </is>
       </c>
     </row>
@@ -1225,12 +1225,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>STWD</t>
+          <t>MSGN</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>NBL</t>
         </is>
       </c>
     </row>
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>UMH</t>
+          <t>OSIS</t>
         </is>
       </c>
     </row>
@@ -1270,12 +1270,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>PEB</t>
         </is>
       </c>
     </row>
@@ -1285,12 +1285,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>PHAS</t>
         </is>
       </c>
     </row>
@@ -1300,12 +1300,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>PUMP</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>PVAC</t>
         </is>
       </c>
     </row>
@@ -1330,12 +1330,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>XAN</t>
+          <t>SCHN</t>
         </is>
       </c>
     </row>
@@ -1345,12 +1345,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SELL</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>YMAB</t>
+          <t>SFIX</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>AAWW</t>
+          <t>SGMO</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ALLO</t>
+          <t>SSYS</t>
         </is>
       </c>
     </row>
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BCEI</t>
+          <t>SUM</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BPMC</t>
+          <t>SUPN</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>BTU</t>
+          <t>TCO</t>
         </is>
       </c>
     </row>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CEIX</t>
+          <t>TELL</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>TRIP</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>TUP</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DO</t>
+          <t>UIS</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ENTA</t>
+          <t>UNFI</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>URGN</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GTHX</t>
+          <t>VYGR</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>LBRT</t>
+          <t>WDR</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PEB</t>
+          <t>WNC</t>
         </is>
       </c>
     </row>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>PUMP</t>
+          <t>X</t>
         </is>
       </c>
     </row>
@@ -1590,112 +1590,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PVAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>RLI</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>SCHN</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>SGMO</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>UNFI</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>VIRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>VYGR</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>X</t>
+          <t>XPER</t>
         </is>
       </c>
     </row>

--- a/app/data/Input.xlsx
+++ b/app/data/Input.xlsx
@@ -359,7 +359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,7 +390,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AGR</t>
+          <t>AMH</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>ASPU</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DGX</t>
+          <t>CASH</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>CBOE</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>FCPT</t>
+          <t>CBRE</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GRBK</t>
+          <t>CHMI</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HIW</t>
+          <t>ELS</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>FBHS</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MCFT</t>
+          <t>FR</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NDSN</t>
+          <t>GL</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>GRWG</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PACQ</t>
+          <t>HDS</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>JBGS</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TRI</t>
+          <t>LRCX</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TRTX</t>
+          <t>NLY</t>
         </is>
       </c>
     </row>
@@ -615,7 +615,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VIVO</t>
+          <t>O</t>
         </is>
       </c>
     </row>
@@ -630,7 +630,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>WCN</t>
+          <t>OPB</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AAWW</t>
+          <t>SF</t>
         </is>
       </c>
     </row>
@@ -655,12 +655,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ALLO</t>
+          <t>STC</t>
         </is>
       </c>
     </row>
@@ -670,12 +670,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AMAG</t>
+          <t>TFSL</t>
         </is>
       </c>
     </row>
@@ -685,12 +685,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AMC</t>
+          <t>UMBF</t>
         </is>
       </c>
     </row>
@@ -700,12 +700,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SELL</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AMG</t>
+          <t>WDAY</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ATNX</t>
+          <t>AMSC</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BCEI</t>
+          <t>BKD</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BKD</t>
+          <t>BLUE</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BLFS</t>
+          <t>CPS</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BLUE</t>
+          <t>CVLT</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BNFT</t>
+          <t>DBI</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BPMC</t>
+          <t>EGRX</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BTU</t>
+          <t>ENLC</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CEIX</t>
+          <t>EXPE</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CEQP</t>
+          <t>FSLR</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CHH</t>
+          <t>GTHX</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CLR</t>
+          <t>IOTS</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>KOS</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CPS</t>
+          <t>NBL</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CRC</t>
+          <t>PYX</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DBD</t>
+          <t>SSYS</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DBI</t>
+          <t>TRIP</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DFIN</t>
+          <t>VSH</t>
         </is>
       </c>
     </row>
@@ -990,607 +990,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DRQ</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>EAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>EDIT</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>ELY</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>ENBL</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>ENTA</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>EQT</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>EXPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>FAST</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>HEAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>HT</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>INN</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>IONS</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>LBRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>LOPE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>MIK</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>MSGN</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>NBL</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>OSIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>PEB</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>PHAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>PUMP</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>PVAC</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>SCHN</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>SFIX</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>SGMO</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>SSYS</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>SUPN</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>TCO</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>TELL</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>TRIP</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>TUP</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>UIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>UNFI</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>URGN</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>VYGR</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>WDR</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>WNC</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>SELL</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>XPER</t>
+          <t>WRLD</t>
         </is>
       </c>
     </row>
